--- a/行测做题记录.xlsx
+++ b/行测做题记录.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\learnByDo\awecg\life\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{38887380-80C1-4155-AED1-63B0B6F097DC}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D8A2F8C6-86A5-44B3-AF0E-F4F1F961F846}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" xr2:uid="{8EEF4E0B-C919-4680-A66D-85C62A5BF730}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
   <si>
     <t>题目来源</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -76,6 +76,14 @@
   </si>
   <si>
     <t>17/25</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>16/20</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>开始尝试</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -122,8 +130,11 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="58" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -443,11 +454,12 @@
   <dimension ref="A1:I2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+      <selection activeCell="I2" sqref="I2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
+    <col min="7" max="7" width="8.83203125" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="32.1640625" customWidth="1"/>
   </cols>
   <sheetData>
@@ -492,6 +504,18 @@
       </c>
       <c r="D2" t="s">
         <v>12</v>
+      </c>
+      <c r="E2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G2" s="1">
+        <v>44489</v>
+      </c>
+      <c r="H2">
+        <v>2.1800000000000002</v>
+      </c>
+      <c r="I2" t="s">
+        <v>14</v>
       </c>
     </row>
   </sheetData>

--- a/行测做题记录.xlsx
+++ b/行测做题记录.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\learnByDo\awecg\life\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D8A2F8C6-86A5-44B3-AF0E-F4F1F961F846}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6066969C-863E-4028-B52B-3343F1D545DC}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" xr2:uid="{8EEF4E0B-C919-4680-A66D-85C62A5BF730}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
   <si>
     <t>题目来源</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -83,7 +83,35 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>开始尝试</t>
+    <t>浙江09</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>21/30</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>23/35</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>17/20</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>12--20</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>14/25</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>稍微超时；图推全不会</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>数量和图推没做</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -130,11 +158,14 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="58" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -451,10 +482,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{61E0C173-7BB8-4FD4-B15C-7A57769E3248}">
-  <dimension ref="A1:I2"/>
+  <dimension ref="A1:I3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I2" sqref="I2"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="I4" sqref="I4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -508,14 +539,43 @@
       <c r="E2" t="s">
         <v>13</v>
       </c>
-      <c r="G2" s="1">
-        <v>44489</v>
-      </c>
-      <c r="H2">
-        <v>2.1800000000000002</v>
+      <c r="G2" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="H2" s="1">
+        <v>44245</v>
       </c>
       <c r="I2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
         <v>14</v>
+      </c>
+      <c r="B3">
+        <v>66.900000000000006</v>
+      </c>
+      <c r="C3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E3" t="s">
+        <v>17</v>
+      </c>
+      <c r="F3" t="s">
+        <v>19</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="H3" s="1">
+        <v>44247</v>
+      </c>
+      <c r="I3" t="s">
+        <v>20</v>
       </c>
     </row>
   </sheetData>

--- a/行测做题记录.xlsx
+++ b/行测做题记录.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\learnByDo\awecg\life\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6066969C-863E-4028-B52B-3343F1D545DC}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A90625C-BDC0-4C52-A84D-EB43DD92A528}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" xr2:uid="{8EEF4E0B-C919-4680-A66D-85C62A5BF730}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="31">
   <si>
     <t>题目来源</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -112,6 +112,42 @@
   </si>
   <si>
     <t>数量和图推没做</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>击败比咧</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>20广东</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>18广东</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>13/15</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5/10 14/20</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10/15 67%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4/5 6/10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>12/15 80%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>模广东</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -136,12 +172,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -158,7 +200,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -166,6 +208,18 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -482,100 +536,185 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{61E0C173-7BB8-4FD4-B15C-7A57769E3248}">
-  <dimension ref="A1:I3"/>
+  <dimension ref="A1:J8"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="I4" sqref="I4"/>
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="7" max="7" width="8.83203125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="32.1640625" customWidth="1"/>
+    <col min="6" max="6" width="8.83203125" style="4" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="8.83203125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="32.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="D1" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" s="5" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>9</v>
       </c>
       <c r="B2" t="s">
         <v>10</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>11</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E2" t="s">
         <v>12</v>
       </c>
-      <c r="E2" t="s">
+      <c r="F2" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="G2" s="2">
+      <c r="H2" s="2">
         <v>0.5</v>
       </c>
-      <c r="H2" s="1">
+      <c r="I2" s="1">
         <v>44245</v>
       </c>
-      <c r="I2" t="s">
+      <c r="J2" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="H3" s="2"/>
+      <c r="I3" s="1"/>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
         <v>14</v>
       </c>
-      <c r="B3">
+      <c r="B4">
         <v>66.900000000000006</v>
       </c>
-      <c r="C3" t="s">
+      <c r="D4" t="s">
         <v>15</v>
       </c>
-      <c r="D3" t="s">
+      <c r="E4" t="s">
         <v>16</v>
       </c>
-      <c r="E3" t="s">
+      <c r="F4" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="F3" t="s">
+      <c r="G4" t="s">
         <v>19</v>
       </c>
-      <c r="G3" s="1" t="s">
+      <c r="H4" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="H3" s="1">
+      <c r="I4" s="1">
         <v>44247</v>
       </c>
-      <c r="I3" t="s">
+      <c r="J4" t="s">
         <v>20</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>30</v>
+      </c>
+      <c r="B5">
+        <v>67</v>
+      </c>
+      <c r="C5">
+        <v>89.3</v>
+      </c>
+      <c r="D5" s="2">
+        <v>0.7</v>
+      </c>
+      <c r="E5" s="2">
+        <v>0.75</v>
+      </c>
+      <c r="F5" s="2">
+        <v>0.8</v>
+      </c>
+      <c r="G5" s="2">
+        <v>0.33</v>
+      </c>
+      <c r="H5" s="2">
+        <v>0.65</v>
+      </c>
+      <c r="I5" s="1">
+        <v>44248</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>23</v>
+      </c>
+      <c r="B6">
+        <v>68</v>
+      </c>
+      <c r="C6" s="3">
+        <v>0.80100000000000005</v>
+      </c>
+      <c r="I6" s="1">
+        <v>44248</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>24</v>
+      </c>
+      <c r="B7">
+        <v>74.599999999999994</v>
+      </c>
+      <c r="C7" s="3">
+        <v>0.71799999999999997</v>
+      </c>
+      <c r="D7" t="s">
+        <v>25</v>
+      </c>
+      <c r="E7" t="s">
+        <v>26</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="G7" t="s">
+        <v>28</v>
+      </c>
+      <c r="H7" t="s">
+        <v>29</v>
+      </c>
+      <c r="I7" s="1">
+        <v>44249</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="C8">
+        <v>100</v>
       </c>
     </row>
   </sheetData>

--- a/行测做题记录.xlsx
+++ b/行测做题记录.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\learnByDo\awecg\life\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A90625C-BDC0-4C52-A84D-EB43DD92A528}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{919F776B-D415-49AC-BE22-FAFB449D21C5}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" xr2:uid="{8EEF4E0B-C919-4680-A66D-85C62A5BF730}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="48">
   <si>
     <t>题目来源</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -148,6 +148,74 @@
   </si>
   <si>
     <t>模广东</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>19广东</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>9/10 13/20</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>12/15 80%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>14/15</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>科学推理之前做过</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>20国考</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>34/40</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>17/20</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>7/15 46%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>15/20 75%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2/10 24/30</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>17广东</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>9/15 60%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>8/15  53%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>7/15 47%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4/10 10/20</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>11/15 73%</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -536,15 +604,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{61E0C173-7BB8-4FD4-B15C-7A57769E3248}">
-  <dimension ref="A1:J8"/>
+  <dimension ref="A1:J9"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+      <selection activeCell="J8" sqref="J8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="6" max="6" width="8.83203125" style="4" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.1640625" customWidth="1"/>
+    <col min="6" max="6" width="9.83203125" style="4" customWidth="1"/>
     <col min="8" max="8" width="8.83203125" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="32.1640625" customWidth="1"/>
   </cols>
@@ -608,62 +677,72 @@
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="H3" s="2"/>
-      <c r="I3" s="1"/>
+      <c r="A3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B3">
+        <v>66.900000000000006</v>
+      </c>
+      <c r="D3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E3" t="s">
+        <v>16</v>
+      </c>
+      <c r="F3" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="G3" t="s">
+        <v>19</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="I3" s="1">
+        <v>44247</v>
+      </c>
+      <c r="J3" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="B4">
-        <v>66.900000000000006</v>
-      </c>
-      <c r="D4" t="s">
-        <v>15</v>
-      </c>
-      <c r="E4" t="s">
-        <v>16</v>
-      </c>
-      <c r="F4" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="G4" t="s">
-        <v>19</v>
-      </c>
-      <c r="H4" s="1" t="s">
-        <v>18</v>
+        <v>67</v>
+      </c>
+      <c r="C4">
+        <v>89.3</v>
+      </c>
+      <c r="D4" s="2">
+        <v>0.7</v>
+      </c>
+      <c r="E4" s="2">
+        <v>0.75</v>
+      </c>
+      <c r="F4" s="2">
+        <v>0.8</v>
+      </c>
+      <c r="G4" s="2">
+        <v>0.33</v>
+      </c>
+      <c r="H4" s="2">
+        <v>0.65</v>
       </c>
       <c r="I4" s="1">
-        <v>44247</v>
-      </c>
-      <c r="J4" t="s">
-        <v>20</v>
+        <v>44248</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="B5">
-        <v>67</v>
-      </c>
-      <c r="C5">
-        <v>89.3</v>
-      </c>
-      <c r="D5" s="2">
-        <v>0.7</v>
-      </c>
-      <c r="E5" s="2">
-        <v>0.75</v>
-      </c>
-      <c r="F5" s="2">
-        <v>0.8</v>
-      </c>
-      <c r="G5" s="2">
-        <v>0.33</v>
-      </c>
-      <c r="H5" s="2">
-        <v>0.65</v>
+        <v>68</v>
+      </c>
+      <c r="C5" s="3">
+        <v>0.80100000000000005</v>
       </c>
       <c r="I5" s="1">
         <v>44248</v>
@@ -671,50 +750,121 @@
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B6">
-        <v>68</v>
+        <v>74.599999999999994</v>
       </c>
       <c r="C6" s="3">
-        <v>0.80100000000000005</v>
+        <v>0.71799999999999997</v>
+      </c>
+      <c r="D6" t="s">
+        <v>25</v>
+      </c>
+      <c r="E6" t="s">
+        <v>26</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="G6" t="s">
+        <v>28</v>
+      </c>
+      <c r="H6" t="s">
+        <v>29</v>
       </c>
       <c r="I6" s="1">
-        <v>44248</v>
+        <v>44249</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="B7">
-        <v>74.599999999999994</v>
-      </c>
-      <c r="C7" s="3">
-        <v>0.71799999999999997</v>
-      </c>
-      <c r="D7" t="s">
-        <v>25</v>
+        <v>87</v>
+      </c>
+      <c r="C7">
+        <v>80.3</v>
+      </c>
+      <c r="D7" s="2">
+        <v>1</v>
       </c>
       <c r="E7" t="s">
-        <v>26</v>
-      </c>
-      <c r="F7" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="G7" t="s">
-        <v>28</v>
+        <v>32</v>
+      </c>
+      <c r="F7" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="G7" s="2">
+        <v>1</v>
       </c>
       <c r="H7" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="I7" s="1">
-        <v>44249</v>
+        <v>44250</v>
+      </c>
+      <c r="J7" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>42</v>
+      </c>
+      <c r="B8">
+        <v>54.7</v>
+      </c>
       <c r="C8">
-        <v>100</v>
+        <v>44.2</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="E8" t="s">
+        <v>46</v>
+      </c>
+      <c r="F8" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="H8" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="I8" s="1">
+        <v>44253</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>36</v>
+      </c>
+      <c r="B9">
+        <v>73.7</v>
+      </c>
+      <c r="C9">
+        <v>75.7</v>
+      </c>
+      <c r="D9" t="s">
+        <v>37</v>
+      </c>
+      <c r="E9" t="s">
+        <v>41</v>
+      </c>
+      <c r="F9" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="G9" t="s">
+        <v>39</v>
+      </c>
+      <c r="H9" t="s">
+        <v>38</v>
+      </c>
+      <c r="I9" s="1">
+        <v>44250</v>
       </c>
     </row>
   </sheetData>
